--- a/backend/routers/class_list_template.xlsx
+++ b/backend/routers/class_list_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jomjo\Documents\thesis 4th yr\ReadSpeak\backend\routers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60903372-1DF9-4399-900D-7E5D44ED0548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C56B89-1837-4BFD-ADC6-F39E4A6926ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{ACEBD9AF-2A46-411B-A164-5BE996EB6080}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{ACEBD9AF-2A46-411B-A164-5BE996EB6080}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,28 +36,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Reminders:</t>
+  </si>
+  <si>
+    <t>Gender and Level are dropdowns, select among the options provided</t>
+  </si>
+  <si>
+    <t>LRN</t>
+  </si>
+  <si>
+    <t>LRN is comprised of 12 digits</t>
+  </si>
+  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Level</t>
+    <t>one number, and one special character.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one uppercase letter, one lowercase letter, </t>
+  </si>
+  <si>
+    <t>Password must be 8–16 characters long, with at least</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.89999084444715716"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,13 +111,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -171,12 +210,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD38E903-2895-4C5A-B033-2352F3DBB939}" name="Table1" displayName="Table1" ref="A1:D30" totalsRowShown="0">
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD38E903-2895-4C5A-B033-2352F3DBB939}" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6DAEB46F-808E-430A-8DF5-C1A11A39D471}" name="Name"/>
     <tableColumn id="2" xr3:uid="{2717E58D-20A0-4A58-A621-5130132A7861}" name="Password"/>
     <tableColumn id="3" xr3:uid="{4F1A898D-BE1F-45B6-A70D-BD91681D7ABE}" name="Gender"/>
     <tableColumn id="4" xr3:uid="{DFEDB4A8-170B-4BF0-9141-3994477B29F0}" name="Level"/>
+    <tableColumn id="5" xr3:uid="{11114BB8-17EE-447C-A102-A9F13F38500C}" name="LRN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
@@ -499,31 +539,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6AFAC3-B34B-4011-8DE4-A81324DB2365}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="27.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="82.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="2"/>
+      <c r="F3" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="2"/>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="2">
